--- a/Data/QA_context_question_answer.xlsx
+++ b/Data/QA_context_question_answer.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyiqi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyiqi/Desktop/UncommonHacks_AVA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290B569-99A1-8E4F-9656-E35B13DDC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7667B2C7-0734-B54A-BA12-38821D9CED00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E3E61449-A4E8-F642-A2E9-972E4BC67E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="561">
   <si>
     <t>Prompt</t>
   </si>
@@ -1108,12 +1108,844 @@
 A small number of courses, such as CMSC 29512 Entrepreneurship in Technology, may be used as College electives, but not as major electives. Courses that fall into this category will be marked as such.
 </t>
   </si>
+  <si>
+    <t>What is a specialization in computer science?</t>
+  </si>
+  <si>
+    <t>A specialization is a focused area of study within the computer science major that requires the completion of a set of courses.</t>
+  </si>
+  <si>
+    <t>How many specializations are currently available?</t>
+  </si>
+  <si>
+    <t>There are five specializations currently available: Computer Security and Privacy, Computer Systems, Data Science, Human Computer Interaction, and Machine Learning.</t>
+  </si>
+  <si>
+    <t>How many courses do students need to complete for a specialization?</t>
+  </si>
+  <si>
+    <t>Students need to complete three courses for each specialization, except for the Programming Languages specialization, which requires three courses beyond those taken to fulfill the Programming Languages and Systems requirement.</t>
+  </si>
+  <si>
+    <t>Can a course count towards both a major sequence requirement and a specialization?</t>
+  </si>
+  <si>
+    <t>No, a course that is counted towards a specialization may not also be counted towards a major sequence requirement, such as Programming Languages and Systems or Theory.</t>
+  </si>
+  <si>
+    <t>Can graduate courses be substituted for undergraduate courses in a specialization?</t>
+  </si>
+  <si>
+    <t>Yes, the graduate versions of some courses can be substituted for their undergraduate counterparts.</t>
+  </si>
+  <si>
+    <t>Where can students find an up-to-date list of courses for each specialization?</t>
+  </si>
+  <si>
+    <t>Students can find an up-to-date list of courses for each specialization on the Computer Science Department's website.</t>
+  </si>
+  <si>
+    <t>Can students petition to have alternate courses count towards their specialization?</t>
+  </si>
+  <si>
+    <t>Yes, students can petition to have alternate courses count towards their specialization via the same page where they find the list of approved courses.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Computer Security and Privacy specialization?</t>
+  </si>
+  <si>
+    <t>The Computer Security and Privacy specialization requires CMSC 23200 Introduction to Computer Security and two additional courses from the specialization list.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Computer Systems specialization?</t>
+  </si>
+  <si>
+    <t>The Computer Systems specialization requires three courses from the specialization list, in addition to those taken to fulfill the Programming Languages and Systems requirement.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Data Science specialization?</t>
+  </si>
+  <si>
+    <t>The Data Science specialization requires CMSC 21800 Data Science for Computer Scientists and two additional courses from the specialization list.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Human Computer Interaction specialization?</t>
+  </si>
+  <si>
+    <t>The Human Computer Interaction specialization requires CMSC 20300 Introduction to Human-Computer Interaction and two additional courses from the specialization list.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Machine Learning specialization?</t>
+  </si>
+  <si>
+    <t>The Machine Learning specialization requires three courses from the specialization list.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Programming Languages specialization?</t>
+  </si>
+  <si>
+    <t>The Programming Languages specialization requires three courses from the specialization list, in addition to those taken to fulfill the Programming Languages and Systems requirements.</t>
+  </si>
+  <si>
+    <t>What courses are required for the Theory specialization?</t>
+  </si>
+  <si>
+    <t>The Theory specialization requires three courses from the specialization list, in addition to those taken to fulfill the Theory requirements.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 23206 about?</t>
+  </si>
+  <si>
+    <t>CMSC 23206 is a course about Security, Privacy, and Consumer Protection.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 25910 about?</t>
+  </si>
+  <si>
+    <t>CMSC 25910 is a course about Engineering for Ethics, Privacy, and Fairness in Computer Systems.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 22200 about?</t>
+  </si>
+  <si>
+    <t>CMSC 22200 is a course about Computer Architecture.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 22240 about?</t>
+  </si>
+  <si>
+    <t>CMSC 22240 is a course about Computer Architecture for Scientists.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 23000 about?</t>
+  </si>
+  <si>
+    <t>CMSC 23000 is a course about Operating Systems.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 23010 about?</t>
+  </si>
+  <si>
+    <t>CMSC 23010 is a course about Parallel Computing.</t>
+  </si>
+  <si>
+    <t>What is the course CMSC 23310 about?</t>
+  </si>
+  <si>
+    <t>CMSC 23310 is a course about Advanced Distributed Systems.</t>
+  </si>
+  <si>
+    <t>What is the Theory specialization in computer science?</t>
+  </si>
+  <si>
+    <t>The Theory specialization requires students to take three courses from a list of approved courses, in addition to those taken to fulfill the theory requirements.</t>
+  </si>
+  <si>
+    <t>What are the required courses for the Theory specialization?</t>
+  </si>
+  <si>
+    <t>The required courses for the Theory specialization are CMSC 27410 Honors Combinatorics, CMSC 27500 Graph Theory, CMSC 27502 Advanced Algorithms, CMSC 27530 Honors Graph Theory, CMSC 27700 Mathematical Logic I, CMSC 27800 Mathematical Logic II, CMSC 28000 Introduction to Formal Languages, CMSC 28100 Introduction to Complexity Theory, CMSC 28130 Honors Introduction to Complexity Theory, and CMSC 28400 Introduction to Cryptography.</t>
+  </si>
+  <si>
+    <t>Can a course that fulfills the theory requirements also be counted towards the Theory specialization?</t>
+  </si>
+  <si>
+    <t>No, a course that fulfills the theory requirements cannot be counted towards the Theory specialization.</t>
+  </si>
+  <si>
+    <t>What is Honors Combinatorics?</t>
+  </si>
+  <si>
+    <t>Honors Combinatorics is a course that covers topics in combinatorics, including generating functions, recurrence relations, graph theory, and Ramsey theory.</t>
+  </si>
+  <si>
+    <t>What is Graph Theory?</t>
+  </si>
+  <si>
+    <t>Graph Theory is a course that covers topics in graph theory, including graph connectivity, planarity, coloring, and algorithms.</t>
+  </si>
+  <si>
+    <t>What is Advanced Algorithms?</t>
+  </si>
+  <si>
+    <t>Advanced Algorithms is a course that covers advanced topics in algorithms, including approximation algorithms, randomized algorithms, and streaming algorithms.</t>
+  </si>
+  <si>
+    <t>What is Honors Graph Theory?</t>
+  </si>
+  <si>
+    <t>Honors Graph Theory is a course that covers advanced topics in graph theory, including spectral graph theory, extremal graph theory, and probabilistic methods.</t>
+  </si>
+  <si>
+    <t>What is Mathematical Logic I?</t>
+  </si>
+  <si>
+    <t>Mathematical Logic I is a course that covers topics in mathematical logic, including propositional logic, predicate logic, and proof techniques.</t>
+  </si>
+  <si>
+    <t>What is Mathematical Logic II?</t>
+  </si>
+  <si>
+    <t>Mathematical Logic II is a course that covers advanced topics in mathematical logic, including incompleteness theorems, model theory, and recursion theory.</t>
+  </si>
+  <si>
+    <t>What is Introduction to Formal Languages?</t>
+  </si>
+  <si>
+    <t>Introduction to Formal Languages is a course that covers topics in formal languages and automata theory, including regular languages, context-free languages, and Turing machines.</t>
+  </si>
+  <si>
+    <t>What is Introduction to Complexity Theory?</t>
+  </si>
+  <si>
+    <t>Introduction to Complexity Theory is a course that covers topics in computational complexity theory, including time and space complexity classes, polynomial hierarchy, and NP-completeness.</t>
+  </si>
+  <si>
+    <t>Theory: three courses from this list, over and above those taken to fulfill the theory requirements
+CMSC 27410 Honors Combinatorics
+CMSC 27500 Graph Theory
+CMSC 27502 Advanced Algorithms
+CMSC 27530 Honors Graph Theory
+CMSC 27700 Mathematical Logic I
+CMSC 27800 Mathematical Logic II
+CMSC 28000 Introduction to Formal Languages
+CMSC 28100 Introduction to Complexity Theory
+CMSC 28130 Honors Introduction to Complexity Theory
+CMSC 28400 Introduction to Cryptography</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specializations
+Students who major in computer science have the option to complete one specialization. To do so, students must choose three of their electives from the relevant approved specialization list. Please note that a course that is counted towards a specialization may not also be counted towards a major sequence requirement (i.e., Programming Languages and Systems, or Theory).
+The graduate versions of the courses below can be substituted for their undergraduate counterparts.
+Please refer to the Computer Science Department's website for an up-to-date list of courses that fulfill each specialization. Students may petition to have alternate courses count towards their specialization via this same page.
+The following specializations are currently available: 
+Computer Security and Privacy: CMSC 23200 Introduction to Computer Security
+ and two other courses from this list
+CMSC 23206 Security, Privacy, and Consumer Protection
+CMSC 23210 Usable Security and Privacy
+CMSC 25910 Engineering for Ethics, Privacy, and Fairness in Computer Systems
+​CMSC 28400 Introduction to Cryptography
+Bachelor’s thesis in computer security, approved as such
+Computer Systems: three courses from this list, over and above those taken to fulfill the programming languages and systems requirement
+CMSC 22200 Computer Architecture
+CMSC 22240 Computer Architecture for Scientists
+CMSC 23000 Operating Systems
+CMSC 23010 Parallel Computing
+CMSC 23310 Advanced Distributed Systems
+CMSC 23320 Foundations of Computer Networks
+CMSC 23500 Introduction to Database Systems
+CMSC 23530 Advanced Database Systems
+CMSC 25422 Machine Learning for Computer Systems
+Bachelor’s thesis in computer systems, approved as such
+Data Science: CMSC 21800 Data Science for Computer Scientists and two other courses from this list
+CMSC 23900 Data Visualization 
+CMSC 25025 Machine Learning and Large-Scale Data Analysis
+CMSC 25300 Mathematical Foundations of Machine Learning 
+CMSC 25400 Machine Learning 
+Bachelor’s thesis in data science, approved as such
+Human Computer Interaction: CMSC 20300 Introduction to Human-Computer Interaction
+ and two other courses from this list
+​​CMSC 20370 Inclusive Technology: Designing for Underserved and Marginalized Populations
+CMSC 20380 Actuated User Interfaces and Technology
+​CMSC 20900 Computers for Learning
+​CMSC 23210 Usable Security and Privacy
+​CMSC 23220 Inventing, Engineering and Understanding Interactive Devices
+CMSC 23230 Engineering Interactive Electronics onto Printed Circuit Boards
+​CMSC 23240 Emergent Interface Technologies
+​CMSC 23400 Mobile Computing
+​CMSC 23900 Data Visualization
+Bachelor’s thesis in human computer interaction, approved as such
+Machine Learning: three courses from this list
+CMSC 25025 Machine Learning and Large-Scale Data Analysis
+CMSC 25040 Introduction to Computer Vision
+CMSC 25300 Mathematical Foundations of Machine Learning 
+CMSC 25400 Machine Learning
+CMSC 25440 Machine Learning in Medicine 
+CMSC 25460 Introduction to Optimization
+CMSC 25500 Introduction to Neural Networks
+CMSC 25700 Natural Language Processing
+Some TTIC courses are approved for this specialization. Students should contact the Computer Science Major Adviser concerning potential overlap.
+Bachelor’s thesis in machine learning, approved as such
+Programming Languages: three courses from this list, over and above those courses taken to fulfill the programming languages and systems requirements
+CMSC 22100 Programming Languages
+CMSC 22300 Functional Programming
+CMSC 22400 Programming Proofs
+CMSC 22500 Type Theory
+CMSC 22600 Compilers for Computer Languages
+Bachelor’s thesis in programming languages, approved as such
+Theory: three courses from this list, over and above those taken to fulfill the theory requirements
+CMSC 27410 Honors Combinatorics
+CMSC 27500 Graph Theory
+CMSC 27502 Advanced Algorithms
+CMSC 27530 Honors Graph Theory
+CMSC 27700 Mathematical Logic I
+CMSC 27800 Mathematical Logic II
+CMSC 28000 Introduction to Formal Languages
+CMSC 28100 Introduction to Complexity Theory
+CMSC 28130 Honors Introduction to Complexity Theory
+CMSC 28400 Introduction to Cryptography
+Bachelor’s thesis in theory, approved as such</t>
+  </si>
+  <si>
+    <t>What is CMSC 11000?</t>
+  </si>
+  <si>
+    <t>CMSC 11000 is a 100-unit course that presents introductory techniques of problem solving, algorithm construction, program coding, and debugging as interdisciplinary arts adaptable to a wide range of disciplines.</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for CMSC 11000?</t>
+  </si>
+  <si>
+    <t>The prerequisites for CMSC 11000 are placement into MATH 13100 or higher, or by consent.</t>
+  </si>
+  <si>
+    <t>What general education requirement does CMSC 11000 meet?</t>
+  </si>
+  <si>
+    <t>CMSC 11000 meets the general education requirement in the mathematical sciences.</t>
+  </si>
+  <si>
+    <t>Will CMSC 11000 be offered again?</t>
+  </si>
+  <si>
+    <t>No, CMSC 11000 will not be offered again.</t>
+  </si>
+  <si>
+    <t>What is CMSC 11111?</t>
+  </si>
+  <si>
+    <t>CMSC 11111 is a 100-unit course that is an introduction to programming, using exercises in graphic design and digital art to motivate and employ basic tools of computation.</t>
+  </si>
+  <si>
+    <t>What programming language(s) will be used in CMSC 11111?</t>
+  </si>
+  <si>
+    <t>Code will be written in JavaScript and related languages in CMSC 11111.</t>
+  </si>
+  <si>
+    <t>Who is not allowed to register for CMSC 11111?</t>
+  </si>
+  <si>
+    <t>Students who have taken CMSC 11800, STAT 11800, CMSC 12100, CMSC 15100, or CMSC 16100 are not allowed to register for CMSC 11111.</t>
+  </si>
+  <si>
+    <t>What is the equivalent course for CMSC 11111?</t>
+  </si>
+  <si>
+    <t>MAAD 21111 is the equivalent course for CMSC 11111.</t>
+  </si>
+  <si>
+    <t>What is CMSC 11710?</t>
+  </si>
+  <si>
+    <t>CMSC 11710 is a 100-unit course that studies networks, which help explain phenomena in technological, social, and biological domains.</t>
+  </si>
+  <si>
+    <t>What formalisms will be employed in the study of networks in CMSC 11710?</t>
+  </si>
+  <si>
+    <t>Formalisms such as graph theory, game theory, information networks, and network dynamics will be employed in the study of networks in CMSC 11710.</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for CMSC 11710?</t>
+  </si>
+  <si>
+    <t>The prerequisites for CMSC 11710 are completion of the general education requirement in the mathematical sciences and familiarity with basic concepts of probability at the high school level.</t>
+  </si>
+  <si>
+    <t>Will necessary mathematical concepts be presented in class for CMSC 11710?</t>
+  </si>
+  <si>
+    <t>Yes, necessary mathematical concepts will be presented in class for CMSC 11710.</t>
+  </si>
+  <si>
+    <t>What is CMSC 11800?</t>
+  </si>
+  <si>
+    <t>CMSC 11800 is a 100-unit course that provides an introduction to data science, which provides tools for gaining insight into specific problems using data, through computation, statistics, and visualization.</t>
+  </si>
+  <si>
+    <t>What topics are covered in CMSC 11800?</t>
+  </si>
+  <si>
+    <t>All aspects of a data analysis process are covered in CMSC 11800, including posing questions, designing data collection strategies, management+storing and processing of data, exploratory tools and visualization, statistical inference, prediction, interpretation, and communication of results.</t>
+  </si>
+  <si>
+    <t>What skills are expected to be developed in CMSC 11800?</t>
+  </si>
+  <si>
+    <t>Although this course is designed to be at the level of mathematical sciences courses in the Core, with little background required, the students are expected to develop computational skills that will allow them to analyze data.</t>
+  </si>
+  <si>
+    <t>What programming language will be used in CMSC 11800?</t>
+  </si>
+  <si>
+    <t>Computation will be done using Python and Jupyter Notebook in CMSC 11800.</t>
+  </si>
+  <si>
+    <t>Who is the instructor for CMSC 11800?</t>
+  </si>
+  <si>
+    <t>William Trimble/TBD is the instructor for CMSC 11800.</t>
+  </si>
+  <si>
+    <t>omputer Science Courses
+CMSC 11000.  Multimedia Programming as an Interdisciplinary Art I.  100 Units.
+This course presented introductory techniques of problem solving, algorithm construction, program coding, and debugging, as interdisciplinary arts adaptable to a wide range of disciplines.
+Prerequisite(s): Placement into MATH 13100 or higher, or by consent.
+Note(s): This course meets the general education requirement in the mathematical sciences.
+This course will not be offered again.
+CMSC 11111.  Creative Coding.  100 Units.
+This course is an introduction to programming, using exercises in graphic design and digital art to motivate and employ basic tools of computation (such as variables, conditional logic, and procedural abstraction). We will write code in JavaScript and related languages, and we will work with a variety of digital media, including vector graphics, raster images, animations, and web applications.
+Note(s): Students who have taken CMSC 11800, STAT 11800, CMSC 12100, CMSC 15100, or CMSC 16100 are not allowed to register for CMSC 11111.
+Equivalent Course(s): MAAD 21111
+CMSC 11710.  Networks.  100 Units.
+Networks help explain phenomena in such technological, social, and biological domains as the spread of opinions, knowledge, and infectious diseases. Networks also help us understand properties of financial markets, food webs, and web technologies. At the same time, the structure and evolution of networks is determined by the set of interactions in the domain. Our study of networks will employ formalisms such as graph theory, game theory, information networks, and network dynamics, with the goal of building formal models and translating their observed properties into qualitative explanations.
+Prerequisite(s): Completion of the general education requirement in the mathematical sciences, and familiarity with basic concepts of probability at the high school level.
+Note(s): Necessary mathematical concepts will be presented in class.
+CMSC 11800.  Introduction to Data Science I.  100 Units.
+Data science provides tools for gaining insight into specific problems using data, through computation, statistics and visualization. This course introduces students to all aspects of a data analysis process, from posing questions, designing data collection strategies, management+storing and processing of data, exploratory tools and visualization, statistical inference, prediction, interpretation and communication of results. Simple techniques for data analysis are used to illustrate both effective and fallacious uses of data science tools.
+Although this course is designed to be at the level of mathematical sciences courses in the Core, with little background required, we expect the students to develop computational skills that will allow them to analyze data. Computation will be done using Python and Jupyter Notebook.
+Instructor(s): William Trimble / TBD     Terms Offered: Autumn
+Spring
+Winter  
+Prerequisite(s): None
+Equivalent Course(s): STAT 11800, DATA 11800
+CMSC 11900.  Introduction to Data Science II.  100 Units.
+This course is the second quarter of a two-quarter systematic introduction to the foundations of data science, as well as to practical considerations in data analysis. A broad background on probability and statistical methodology will be provided. More advanced topics on data privacy and ethics, reproducibility in science, data encryption, and basic machine learning will be introduced. We will explore these concepts with real-world problems from different domains.
+Instructor(s): William L Trimble / TBD     Terms Offered: Spring
+Winter
+Prerequisite(s): DATA 11800 , or STAT 11800 or CMSC 11800 or consent of instructor.
+Equivalent Course(s): STAT 11900, DATA 11900</t>
+  </si>
+  <si>
+    <t>CMSC 12100-12200-12300.  Computer Science with Applications I-II-III.
+This three-quarter sequence teaches computational thinking and skills to students who are majoring in the sciences, mathematics, and economics, etc. Lectures cover topics in (1) programming, such as recursion, abstract data types, and processing data; (2) computer science, such as clustering methods, event-driven simulation, and theory of computation; and to a lesser extent (3) numerical computation, such as approximating functions and their derivatives and integrals, solving systems of linear equations, and simple Monte Carlo techniques.
+CMSC 12100.  Computer Science with Applications I.  100 Units.
+This course is the first in a three-quarter sequence that teaches computational thinking and skills to students in the sciences, mathematics, economics, etc. The course will cover abstraction and decomposition, simple modeling, basic algorithms, and programming in Python. Applications from a wide variety of fields serve both as examples in lectures and as the basis for programming assignments. In recent offerings, students have written programs to simulate a model of housing segregation, determine the number of machines needed at a polling place, and analyze tweets from presidential debates.
+Students can find more information about this course at http://bit.ly/cmsc12100-aut-20.
+Prerequisite(s): First year students are not allowed to register for CMSC 12100.  Placement into MATH 15100 or completion of MATH 13100.
+Note(s): First year students are not allowed to register for CMSC 12100.  This course meets the general education requirement in the mathematical sciences.</t>
+  </si>
+  <si>
+    <t>What is the CMSC 12100-12200-12300 sequence about?</t>
+  </si>
+  <si>
+    <t>The CMSC 12100-12200-12300 sequence teaches computational thinking and skills to students who are majoring in the sciences, mathematics, and economics, etc.</t>
+  </si>
+  <si>
+    <t>What topics are covered in the lectures of the three-quarter sequence?</t>
+  </si>
+  <si>
+    <t>The lectures cover topics in programming, computer science, and numerical computation.</t>
+  </si>
+  <si>
+    <t>What is CMSC 12100 about?</t>
+  </si>
+  <si>
+    <t>CMSC 12100 is the first in a three-quarter sequence that teaches computational thinking and skills to students in the sciences, mathematics, economics, etc.</t>
+  </si>
+  <si>
+    <t>What are some of the applications covered in CMSC 12100?</t>
+  </si>
+  <si>
+    <t>Applications from a wide variety of fields serve both as examples in lectures and as the basis for programming assignments. In recent offerings, students have written programs to simulate a model of housing segregation, determine the number of machines needed at a polling place, and analyze tweets from presidential debates.</t>
+  </si>
+  <si>
+    <t>What programming language is used in CMSC 12100?</t>
+  </si>
+  <si>
+    <t>Basic algorithms and programming in Python are covered in CMSC 12100.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 12100?</t>
+  </si>
+  <si>
+    <t>Placement into MATH 15100 or completion of MATH 13100 is required to register for CMSC 12100. First year students are not allowed to register for this course.</t>
+  </si>
+  <si>
+    <t>What is the course load for CMSC 12100?</t>
+  </si>
+  <si>
+    <t>CMSC 12100 is a 100-unit course.</t>
+  </si>
+  <si>
+    <t>What is the website for more information on CMSC 12100?</t>
+  </si>
+  <si>
+    <t>Students can find more information about this course at http://bit.ly/cmsc12100-aut-20.</t>
+  </si>
+  <si>
+    <t>What is the focus of CMSC 12200?</t>
+  </si>
+  <si>
+    <t>CMSC 12200 focuses on building more sophisticated models, algorithms, and data structures.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 12200?</t>
+  </si>
+  <si>
+    <t>CMSC 12100 is a prerequisite for CMSC 12200.</t>
+  </si>
+  <si>
+    <t>What is the course load for CMSC 12200?</t>
+  </si>
+  <si>
+    <t>CMSC 12200 is a 100-unit course.</t>
+  </si>
+  <si>
+    <t>What is the focus of CMSC 12300?</t>
+  </si>
+  <si>
+    <t>CMSC 12300 focuses on fundamental ideas in theoretical computer science, such as finite automata, Turing machines, and the theory of NP-completeness.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 12300?</t>
+  </si>
+  <si>
+    <t>CMSC 12200 is a prerequisite for CMSC 12300.</t>
+  </si>
+  <si>
+    <t>What is the course load for CMSC 12300?</t>
+  </si>
+  <si>
+    <t>CMSC 12300 is a 100-unit course.</t>
+  </si>
+  <si>
+    <t>What is the general education requirement met by CMSC 12100?</t>
+  </si>
+  <si>
+    <t>CMSC 12100 meets the general education requirement in the mathematical sciences.</t>
+  </si>
+  <si>
+    <t>Who is eligible to register for CMSC 12100?</t>
+  </si>
+  <si>
+    <t>First year students are not allowed to register for CMSC 12100. Placement into MATH 15100 or completion of MATH 13100 is required to register for this course.</t>
+  </si>
+  <si>
+    <t>What is the purpose of the three-quarter sequence?</t>
+  </si>
+  <si>
+    <t>The three-quarter sequence teaches computational thinking and skills to students who are majoring in the sciences, mathematics, and economics, etc.</t>
+  </si>
+  <si>
+    <t>What numerical computation topics are covered in the three-quarter sequence?</t>
+  </si>
+  <si>
+    <t>The numerical computation topics covered include approximating functions and their derivatives and integrals, solving systems of linear equations, and simple Monte Carlo techniques.</t>
+  </si>
+  <si>
+    <t>What is the focus of computer science topics covered in the three-quarter sequence?</t>
+  </si>
+  <si>
+    <t>The computer science topics covered in the sequence include clustering methods, event-driven simulation, and theory of computation</t>
+  </si>
+  <si>
+    <t>CMSC 12200.  Computer Science with Applications II.  100 Units.
+This course is the second in a three-quarter sequence that teaches computational thinking and skills to students in the sciences, mathematics, economics, etc. Lectures cover topics in (1) data representation, (2) basics of relational databases, (3) shell scripting, (4) data analysis algorithms, such as clustering and decision trees, and (5) data structures, such as hash tables and heaps. Applications and datasets from a wide variety of fields serve both as examples in lectures and as the basis for programming assignments. In recent offerings, students have written a course search engine and a system to do speaker identification. Students will program in Python and do a quarter-long programming project.
+Prerequisite(s): CMSC 12100
+Note(s): This course meets the general education requirement in the mathematical sciences.
+CMSC 12300.  Computer Science with Applications III.  100 Units.
+The course revolves around core ideas behind the management and computation of large volumes of data ("Big Data"). Topics include (1) Statistical methods for large data analysis, (2) Parallelism and concurrency, including models of parallelism and synchronization primitives, and (3) Distributed computing, including distributed architectures and the algorithms and techniques that enable these architectures to be fault-tolerant, reliable, and scalable. Students will continue to use Python, and will also learn C and distributed computing tools and platforms, including Amazon AWS and Hadoop. This course includes a project where students will have to formulate hypotheses about a large dataset, develop statistical models to test those hypotheses, implement a prototype that performs an initial exploration of the data, and a final system to process the entire dataset.
+Prerequisite(s): CMSC 12200</t>
+  </si>
+  <si>
+    <t>What is CMSC 12200?</t>
+  </si>
+  <si>
+    <t>CMSC 12200 is the second course in a three-quarter sequence that teaches computational thinking and skills to students majoring in the sciences, mathematics, economics, and other fields.</t>
+  </si>
+  <si>
+    <t>What topics are covered in CMSC 12200 lectures?</t>
+  </si>
+  <si>
+    <t>CMSC 12200 lectures cover topics in data representation, basics of relational databases, shell scripting, data analysis algorithms, and data structures.</t>
+  </si>
+  <si>
+    <t>What kind of programming assignments do students do in CMSC 12200?</t>
+  </si>
+  <si>
+    <t>Students in CMSC 12200 do programming assignments using applications and datasets from a wide variety of fields, such as writing a course search engine or a system for speaker identification.</t>
+  </si>
+  <si>
+    <t>What programming language do students use in CMSC 12200?</t>
+  </si>
+  <si>
+    <t>Students in CMSC 12200 use Python to complete programming assignments and do a quarter-long programming project.</t>
+  </si>
+  <si>
+    <t>The prerequisite for CMSC 12200 is CMSC 12100.</t>
+  </si>
+  <si>
+    <t>What is the note about CMSC 12200?</t>
+  </si>
+  <si>
+    <t>The note about CMSC 12200 is that it meets the general education requirement in the mathematical sciences.</t>
+  </si>
+  <si>
+    <t>What is CMSC 12300?</t>
+  </si>
+  <si>
+    <t>CMSC 12300 is the third course in a three-quarter sequence that teaches computational thinking and skills to students majoring in the sciences, mathematics, economics, and other fields.</t>
+  </si>
+  <si>
+    <t>What are the core ideas behind CMSC 12300?</t>
+  </si>
+  <si>
+    <t>The core ideas behind CMSC 12300 are the management and computation of large volumes of data ("Big Data").</t>
+  </si>
+  <si>
+    <t>What topics are covered in CMSC 12300 lectures?</t>
+  </si>
+  <si>
+    <t>CMSC 12300 lectures cover topics in statistical methods for large data analysis, parallelism and concurrency, and distributed computing.</t>
+  </si>
+  <si>
+    <t>What programming languages do students use in CMSC 12300?</t>
+  </si>
+  <si>
+    <t>Students in CMSC 12300 use Python, C, and distributed computing tools and platforms, such as Amazon AWS and Hadoop.</t>
+  </si>
+  <si>
+    <t>What kind of project do students do in CMSC 12300?</t>
+  </si>
+  <si>
+    <t>Students in CMSC 12300 do a project where they formulate hypotheses about a large dataset, develop statistical models to test those hypotheses, implement a prototype that performs an initial exploration of the data, and a final system to process the entire dataset.</t>
+  </si>
+  <si>
+    <t>The prerequisite for CMSC 12300 is CMSC 12200.</t>
+  </si>
+  <si>
+    <t>What is the note about CMSC 12300?</t>
+  </si>
+  <si>
+    <t>The note about CMSC 12300 is that it meets the general education requirement in the mathematical sciences.</t>
+  </si>
+  <si>
+    <t>What is the focus of CMSC 12100?</t>
+  </si>
+  <si>
+    <t>The focus of CMSC 12100 is on abstraction and decomposition, simple modeling, basic algorithms, and programming in Python.</t>
+  </si>
+  <si>
+    <t>What kind of applications are used in CMSC 12100 lectures?</t>
+  </si>
+  <si>
+    <t>Applications from a wide variety of fields are used in CMSC 12100 lectures, serving both as examples and as the basis for programming assignments.</t>
+  </si>
+  <si>
+    <t>What kind of programming assignments do students do in CMSC 12100?</t>
+  </si>
+  <si>
+    <t>Students in CMSC 12100 write programs to simulate a model of housing segregation, determine the number of machines needed at a polling place, and analyze tweets from presidential debates, among other assignments.</t>
+  </si>
+  <si>
+    <t>Can first year students register for CMSC 12100?</t>
+  </si>
+  <si>
+    <t>No, first year students are not allowed to register for CMSC 12100.</t>
+  </si>
+  <si>
+    <t>What is CMSC 13600?</t>
+  </si>
+  <si>
+    <t>CMSC 13600 is an introduction to big data engineering that covers streaming, data cleaning, relational data modeling and SQL, and Machine Learning model training.</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for CMSC 13600?</t>
+  </si>
+  <si>
+    <t>The prerequisites for CMSC 13600 are CMSC 11900, CMSC 12200, CMSC 15200, or CMSC 16200.</t>
+  </si>
+  <si>
+    <t>What is the focus of CMSC 13600?</t>
+  </si>
+  <si>
+    <t>The focus of CMSC 13600 is "scale," and it covers the theory and practice of programming with large external datasets that cannot fit in main memory on a single machine.</t>
+  </si>
+  <si>
+    <t>What are the course requirements for CMSC 13600?</t>
+  </si>
+  <si>
+    <t>The course requirements for CMSC 13600 are bi-weekly programming assignments, a midterm examination, and a final.</t>
+  </si>
+  <si>
+    <t>What is CMSC 14100?</t>
+  </si>
+  <si>
+    <t>CMSC 14100 is the first of a pair of courses designed to introduce students to computer science and build computational skills such as abstraction and decomposition.</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for CMSC 14100?</t>
+  </si>
+  <si>
+    <t>The prerequisites for CMSC 14100 are placement into MATH 15100 or completion of MATH 13100, or instructor’s consent.</t>
+  </si>
+  <si>
+    <t>What topics are covered in CMSC 14100?</t>
+  </si>
+  <si>
+    <t>CMSC 14100 covers basic algorithms and data structures and introduces students to the basics of programming in Python, including designing and calling functions, designing and using classes and objects, writing recursive functions, and building and traversing recursive data structures.</t>
+  </si>
+  <si>
+    <t>What is CMSC 14200?</t>
+  </si>
+  <si>
+    <t>CMSC 14200 is a direct continuation of CMSC 14100 and explores more advanced concepts in computer science and Python programming.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 14200?</t>
+  </si>
+  <si>
+    <t>The prerequisite for CMSC 14200 is CMSC 14100, or placement into CMSC 14200.</t>
+  </si>
+  <si>
+    <t>What topics are covered in CMSC 14200?</t>
+  </si>
+  <si>
+    <t>CMSC 14200 covers object-oriented programming, advanced data structures, functions as first-class objects, testing, and debugging.</t>
+  </si>
+  <si>
+    <t>What is the emphasis of CMSC 14200?</t>
+  </si>
+  <si>
+    <t>The emphasis of CMSC 14200 is on skills required to build complex software, with an introduction to basic aspects of the software development lifecycle and software design.</t>
+  </si>
+  <si>
+    <t>CMSC 12200 is Computer Science with Applications II, the second in a three-quarter sequence that teaches computational thinking and skills to students in the sciences, mathematics, economics, etc.</t>
+  </si>
+  <si>
+    <t>What are the topics covered in CMSC 12200?</t>
+  </si>
+  <si>
+    <t>The topics covered in CMSC 12200 include data representation, basics of relational databases, shell scripting, data analysis algorithms, such as clustering and decision trees, and data structures, such as hash tables and heaps.</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for CMSC 12200?</t>
+  </si>
+  <si>
+    <t>What is the course structure for CMSC 12200?</t>
+  </si>
+  <si>
+    <t>The course structure for CMSC 12200 includes lectures, programming assignments, and a quarter-long programming project.</t>
+  </si>
+  <si>
+    <t>CMSC 12300 is Computer Science with Applications III, a course that focuses on the management and computation of large volumes of data ("Big Data").</t>
+  </si>
+  <si>
+    <t>CMSC 13600.  Introduction to Data Engineering.  100 Units.
+Data-driven models are revolutionizing science and industry. Scalable systems are needed to collect, stream, process, and validate data at scale. This course is an introduction to "big" data engineering where students will receive hands-on experience building and deploying realistic data-intensive systems. It will cover streaming, data cleaning, relational data modeling and SQL, and Machine Learning model training. A core theme of the course is "scale," and we will discuss the theory and the practice of programming with large external datasets that cannot fit in main memory on a single machine. The course will consist of bi-weekly programming assignments, a midterm examination, and a final.
+Prerequisite(s): CMSC 11900, CMSC 12200, CMSC 15200, or CMSC 16200
+CMSC 14100.  Introduction to Computer Science I.  100 Units.
+This course is the first of a pair of courses that are designed to introduce students to computer science and will help them build computational skills, such as abstraction and decomposition, and will cover basic algorithms and data structures. Students will also be introduced to the basics of programming in Python including designing and calling functions, designing and using classes and objects, writing recursive functions, and building and traversing recursive data structures. Students will also gain basic facility with the Linux command-line and version control.
+Prerequisite(s): Placement into MATH 15100 or completion of MATH 13100, or instructor’s consent, is a prerequisite for taking this course.
+CMSC 14200.  Introduction to Computer Science II.  100 Units.
+This course is a direct continuation of CMSC 14100. Students will explore more advanced concepts in computer science and Python programming, with an emphasis on skills required to build complex software, such as object-oriented programming, advanced data structures, functions as first-class objects, testing, and debugging. The class will also introduce students to basic aspects of the software development lifecycle, with an emphasis on software design. Students will also gain further fluency in working with the Linux command-line, including some basic operating system concepts, as well as the use of version control systems for collaborative software development.
+Prerequisite(s): CMSC 14100, or placement into CMSC 14200, is a prerequisite for taking this course.</t>
+  </si>
+  <si>
+    <t>What is CMSC 14300?</t>
+  </si>
+  <si>
+    <t>CMSC 14300 is the first in a pair of courses designed to teach students about systems programming.</t>
+  </si>
+  <si>
+    <t>What will students learn in CMSC 14300?</t>
+  </si>
+  <si>
+    <t>In CMSC 14300, students will develop a deeper understanding of what a computer does when executing a program and study the C programming language, with special attention devoted to bit-level programming, pointers, allocation, file input and output, and memory layout.</t>
+  </si>
+  <si>
+    <t>What data structures will be covered in CMSC 14300?</t>
+  </si>
+  <si>
+    <t>In CMSC 14300, the course will revisit fundamental data structures by way of programming exercises, including strings, arrays, lists, trees, and dictionaries.</t>
+  </si>
+  <si>
+    <t>What debugging tools will students learn in CMSC 14300?</t>
+  </si>
+  <si>
+    <t>Students will gain basic fluency with debugging tools such as gdb and valgrind and build systems such as make in CMSC 14300.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 14300?</t>
+  </si>
+  <si>
+    <t>CMSC 14200, or placement into CMSC 14300, is a prerequisite for taking this course.</t>
+  </si>
+  <si>
+    <t>What is CMSC 14400?</t>
+  </si>
+  <si>
+    <t>CMSC 14400 is a direct continuation of CMSC 14300.</t>
+  </si>
+  <si>
+    <t>What topics will be covered in CMSC 14400?</t>
+  </si>
+  <si>
+    <t>In CMSC 14400, topics include machine language programming, exceptions, code optimization, performance measurement, system-level I/O, and concurrency.</t>
+  </si>
+  <si>
+    <t>What debugging tools will students further learn in CMSC 14400?</t>
+  </si>
+  <si>
+    <t>Students will gain further fluency with debugging tools and build systems in CMSC 14400.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 14400?</t>
+  </si>
+  <si>
+    <t>CMSC 14300, or placement into CMSC 14400, is a prerequisite for taking this course.</t>
+  </si>
+  <si>
+    <t>What is the CMSC 15100-15200 sequence?</t>
+  </si>
+  <si>
+    <t>The CMSC 15100-15200 sequence is recommended for all students planning to take more advanced courses in computer science.</t>
+  </si>
+  <si>
+    <t>What topics will be covered in CMSC 15100-15200?</t>
+  </si>
+  <si>
+    <t>Topics include program design, control and data abstraction, recursion and induction, higher-order programming, types and polymorphism, time and space analysis, memory management, and data structures including lists, trees, and graphs.</t>
+  </si>
+  <si>
+    <t>Can non-majors take CMSC 15100 to meet a general education requirement?</t>
+  </si>
+  <si>
+    <t>Yes, non-majors may use either course in the CMSC 15100-15200 sequence to meet the general education requirement in the mathematical sciences.</t>
+  </si>
+  <si>
+    <t>What is the prerequisite for CMSC 15100?</t>
+  </si>
+  <si>
+    <t>Placement into MATH 15100 or completion of MATH 13100 is required for CMSC 15100.</t>
+  </si>
+  <si>
+    <t>What is the note regarding CMSC 15100-15200?</t>
+  </si>
+  <si>
+    <t>This course meets the general education requirement in the mathematical sciences. Non-majors may use either course in this sequence to meet the general education requirement in the mathematical sciences; students who are majoring in Computer Science must use either CMSC 15100-15200 or 16100-16200 to meet requirements for the major.</t>
+  </si>
+  <si>
+    <t>What is CMSC 15100?</t>
+  </si>
+  <si>
+    <t>CMSC 15100 is the first course in the CMSC 15100-15200 sequence.</t>
+  </si>
+  <si>
+    <t>What programming languages will be studied in CMSC 15100-15200?</t>
+  </si>
+  <si>
+    <t>The CMSC 15100-15200 sequence introduces computer science mostly through the study of programming in functional (Scheme) and imperative (C) programming languages.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1139,6 +1971,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1157,35 +1997,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1498,1485 +2341,1485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D8C6FB-5096-4842-BA84-875C3F182F69}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="85" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="166.83203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="85" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.83203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="6"/>
+      <c r="C64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="6"/>
+      <c r="C68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="6"/>
+      <c r="C69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5" t="s">
+      <c r="B70" s="6"/>
+      <c r="C70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="5" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="5" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="5" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="5" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="5" t="s">
+      <c r="B91" s="7"/>
+      <c r="C91" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="5" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="7"/>
+      <c r="C99" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="7"/>
+      <c r="C100" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="7"/>
+      <c r="C101" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="7"/>
+      <c r="C102" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="7"/>
+      <c r="C103" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="7"/>
+      <c r="C104" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="7"/>
+      <c r="C105" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="7"/>
+      <c r="C106" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="7"/>
+      <c r="C107" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="5" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="7"/>
+      <c r="C109" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="7"/>
+      <c r="C110" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="7"/>
+      <c r="C111" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -2987,11 +3830,11 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="1" t="s">
         <v>227</v>
       </c>
@@ -3000,11 +3843,11 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="1" t="s">
         <v>229</v>
       </c>
@@ -3013,11 +3856,11 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="1" t="s">
         <v>231</v>
       </c>
@@ -3026,11 +3869,11 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="1" t="s">
         <v>233</v>
       </c>
@@ -3039,11 +3882,11 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="1" t="s">
         <v>235</v>
       </c>
@@ -3052,11 +3895,11 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="1" t="s">
         <v>237</v>
       </c>
@@ -3065,11 +3908,11 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="1" t="s">
         <v>239</v>
       </c>
@@ -3078,11 +3921,11 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="1" t="s">
         <v>241</v>
       </c>
@@ -3091,11 +3934,11 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="1" t="s">
         <v>243</v>
       </c>
@@ -3104,11 +3947,11 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="1" t="s">
         <v>245</v>
       </c>
@@ -3117,11 +3960,11 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="1" t="s">
         <v>247</v>
       </c>
@@ -3130,11 +3973,11 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="1" t="s">
         <v>249</v>
       </c>
@@ -3143,11 +3986,11 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="1" t="s">
         <v>251</v>
       </c>
@@ -3156,11 +3999,11 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
@@ -3169,11 +4012,11 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="1" t="s">
         <v>255</v>
       </c>
@@ -3182,11 +4025,11 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="1" t="s">
         <v>257</v>
       </c>
@@ -3195,11 +4038,11 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="1" t="s">
         <v>259</v>
       </c>
@@ -3208,11 +4051,11 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -3223,11 +4066,11 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B131" s="6"/>
+      <c r="B131" s="5"/>
       <c r="C131" s="1" t="s">
         <v>263</v>
       </c>
@@ -3236,11 +4079,11 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
-        <f t="shared" ref="A132:A161" si="2">A131+1</f>
+      <c r="A132" s="2">
+        <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
         <v>265</v>
       </c>
@@ -3249,11 +4092,11 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="5"/>
       <c r="C133" s="1" t="s">
         <v>267</v>
       </c>
@@ -3262,11 +4105,11 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
         <v>269</v>
       </c>
@@ -3275,11 +4118,11 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
         <v>271</v>
       </c>
@@ -3288,11 +4131,11 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136" s="6"/>
+      <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
         <v>273</v>
       </c>
@@ -3301,11 +4144,11 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137" s="6"/>
+      <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
         <v>275</v>
       </c>
@@ -3314,11 +4157,11 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138" s="6"/>
+      <c r="B138" s="5"/>
       <c r="C138" s="1" t="s">
         <v>277</v>
       </c>
@@ -3327,11 +4170,11 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="5"/>
       <c r="C139" s="1" t="s">
         <v>279</v>
       </c>
@@ -3340,11 +4183,11 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="5"/>
       <c r="C140" s="1" t="s">
         <v>281</v>
       </c>
@@ -3353,11 +4196,11 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="5"/>
       <c r="C141" s="1" t="s">
         <v>283</v>
       </c>
@@ -3366,11 +4209,11 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="5"/>
       <c r="C142" s="1" t="s">
         <v>285</v>
       </c>
@@ -3379,11 +4222,11 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="5"/>
       <c r="C143" s="1" t="s">
         <v>287</v>
       </c>
@@ -3392,11 +4235,11 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B144" s="6"/>
+      <c r="B144" s="5"/>
       <c r="C144" s="1" t="s">
         <v>288</v>
       </c>
@@ -3405,11 +4248,11 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="5"/>
       <c r="C145" s="1" t="s">
         <v>290</v>
       </c>
@@ -3418,11 +4261,11 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -3433,11 +4276,11 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147" s="6"/>
+      <c r="B147" s="5"/>
       <c r="C147" s="1" t="s">
         <v>295</v>
       </c>
@@ -3446,11 +4289,11 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148" s="6"/>
+      <c r="B148" s="5"/>
       <c r="C148" s="1" t="s">
         <v>297</v>
       </c>
@@ -3459,11 +4302,11 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149" s="6"/>
+      <c r="B149" s="5"/>
       <c r="C149" s="1" t="s">
         <v>299</v>
       </c>
@@ -3472,11 +4315,11 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150" s="6"/>
+      <c r="B150" s="5"/>
       <c r="C150" s="1" t="s">
         <v>301</v>
       </c>
@@ -3485,11 +4328,11 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="5"/>
       <c r="C151" s="1" t="s">
         <v>303</v>
       </c>
@@ -3498,11 +4341,11 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152" s="6"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="1" t="s">
         <v>305</v>
       </c>
@@ -3511,11 +4354,11 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B153" s="6"/>
+      <c r="B153" s="5"/>
       <c r="C153" s="1" t="s">
         <v>307</v>
       </c>
@@ -3524,11 +4367,11 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154" s="6"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="1" t="s">
         <v>309</v>
       </c>
@@ -3537,11 +4380,11 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155" s="6"/>
+      <c r="B155" s="5"/>
       <c r="C155" s="1" t="s">
         <v>311</v>
       </c>
@@ -3550,11 +4393,11 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156" s="6"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="1" t="s">
         <v>313</v>
       </c>
@@ -3563,11 +4406,11 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157" s="6"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="1" t="s">
         <v>315</v>
       </c>
@@ -3576,11 +4419,11 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158" s="6"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="1" t="s">
         <v>317</v>
       </c>
@@ -3589,11 +4432,11 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B159" s="6"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="1" t="s">
         <v>319</v>
       </c>
@@ -3602,11 +4445,11 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="1" t="s">
         <v>321</v>
       </c>
@@ -3615,11 +4458,11 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B161" s="6"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="1" t="s">
         <v>323</v>
       </c>
@@ -3627,8 +4470,1412 @@
         <v>324</v>
       </c>
     </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <f t="shared" ref="A196:A246" si="3">A195+1</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="5"/>
+      <c r="C204" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="5"/>
+      <c r="C209" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="4"/>
+      <c r="C212" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="4"/>
+      <c r="C216" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="4"/>
+      <c r="C217" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="4"/>
+      <c r="C218" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="4"/>
+      <c r="C219" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="4"/>
+      <c r="C220" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="4"/>
+      <c r="C221" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="4"/>
+      <c r="C222" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="4"/>
+      <c r="C223" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="4"/>
+      <c r="C224" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="4"/>
+      <c r="C225" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="4"/>
+      <c r="C226" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="4"/>
+      <c r="C228" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="4"/>
+      <c r="C229" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="4"/>
+      <c r="C231" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="4"/>
+      <c r="C233" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="4"/>
+      <c r="C236" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="4"/>
+      <c r="C238" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="4"/>
+      <c r="C239" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="4"/>
+      <c r="C240" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="4"/>
+      <c r="C241" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="4"/>
+      <c r="C243" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="4"/>
+      <c r="C245" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B246" s="4"/>
+      <c r="C246" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B248" s="5"/>
+      <c r="C248" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B249" s="5"/>
+      <c r="C249" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B250" s="5"/>
+      <c r="C250" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B251" s="5"/>
+      <c r="C251" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B252" s="5"/>
+      <c r="C252" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B253" s="5"/>
+      <c r="C253" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B254" s="5"/>
+      <c r="C254" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="5"/>
+      <c r="C255" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B256" s="5"/>
+      <c r="C256" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="5"/>
+      <c r="C257" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="5"/>
+      <c r="C258" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="5"/>
+      <c r="C259" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="5"/>
+      <c r="C260" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="5"/>
+      <c r="C261" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="5"/>
+      <c r="C262" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C263" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C264" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C265" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C266" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C267" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C268" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C269" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C270" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C271" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C272" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C273" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C274" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C275" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C276" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C277" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C278" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="B230:B246"/>
+    <mergeCell ref="B247:B262"/>
+    <mergeCell ref="B162:B182"/>
+    <mergeCell ref="B183:B193"/>
+    <mergeCell ref="B194:B210"/>
+    <mergeCell ref="B211:B229"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B36"/>
+    <mergeCell ref="B37:B51"/>
     <mergeCell ref="B130:B145"/>
     <mergeCell ref="B146:B161"/>
     <mergeCell ref="B52:B70"/>
@@ -3636,13 +5883,11 @@
     <mergeCell ref="B87:B96"/>
     <mergeCell ref="B97:B111"/>
     <mergeCell ref="B112:B129"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B36"/>
-    <mergeCell ref="B37:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D218" r:id="rId1" display="http://bit.ly/cmsc12100-aut-20" xr:uid="{572DACED-5A3E-4546-9AE6-B3A40C4D18D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>